--- a/需求优先级打分/SRA2023-G17-需求优先级打分（管理员）(1).xlsx
+++ b/需求优先级打分/SRA2023-G17-需求优先级打分（管理员）(1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop\计算机系统原理实验\软件需求\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\时蒙恩\Desktop\计算机系统原理实验\软件工程\Request\需求优先级打分\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E378421D-8528-4DCB-AC47-C958A795E436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCAD3F6-8F89-45B9-9158-FB8394025652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="2565" windowWidth="27045" windowHeight="12870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="405" yWindow="2385" windowWidth="27045" windowHeight="12870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>相对权重</t>
   </si>
@@ -127,10 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  用户管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  查看举报信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -196,6 +192,22 @@
   </si>
   <si>
     <t xml:space="preserve">  修改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 帖子删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  用户管理-绑定管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  用户管理-密码管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  用户管理-用户增删</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -262,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -290,10 +302,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1111,7 +1119,7 @@
   <dimension ref="A1:M66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+      <selection activeCell="K25" sqref="K25:K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1173,7 +1181,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1">
         <f>SUM((C:C)*2,(D:D))</f>
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -1517,7 +1525,7 @@
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="1">
         <v>9</v>
@@ -1531,25 +1539,25 @@
       </c>
       <c r="F25" s="7">
         <f>E25/SUM($E$23:$E$65)</f>
-        <v>7.796610169491526E-2</v>
+        <v>6.3013698630136991E-2</v>
       </c>
       <c r="G25" s="5">
         <v>5</v>
       </c>
       <c r="H25" s="7">
         <f>G25/SUM($G$23:$G$65)</f>
-        <v>5.2631578947368418E-2</v>
+        <v>4.3859649122807015E-2</v>
       </c>
       <c r="I25" s="5">
         <v>4</v>
       </c>
       <c r="J25" s="7">
         <f>I25/SUM($I$23:$I$65)</f>
-        <v>4.6511627906976744E-2</v>
-      </c>
-      <c r="K25" s="9">
+        <v>3.7735849056603772E-2</v>
+      </c>
+      <c r="K25" s="5">
         <f>F25/SUM(H25+J25*0.5)</f>
-        <v>1.0273920174958995</v>
+        <v>1.0045613908266167</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -1563,7 +1571,7 @@
       <c r="H26" s="7"/>
       <c r="I26" s="5"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="9"/>
+      <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
@@ -1580,12 +1588,12 @@
       <c r="H27" s="7"/>
       <c r="I27" s="5"/>
       <c r="J27" s="7"/>
-      <c r="K27" s="9"/>
+      <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="1">
         <v>7</v>
@@ -1599,25 +1607,25 @@
       </c>
       <c r="F28" s="7">
         <f>E28/SUM($E$23:$E$65)</f>
-        <v>6.4406779661016947E-2</v>
+        <v>5.2054794520547946E-2</v>
       </c>
       <c r="G28" s="5">
         <v>5</v>
       </c>
       <c r="H28" s="7">
         <f>G28/SUM($G$23:$G$65)</f>
-        <v>5.2631578947368418E-2</v>
+        <v>4.3859649122807015E-2</v>
       </c>
       <c r="I28" s="5">
         <v>4</v>
       </c>
       <c r="J28" s="7">
         <f>I28/SUM($I$23:$I$65)</f>
-        <v>4.6511627906976744E-2</v>
-      </c>
-      <c r="K28" s="9">
-        <f t="shared" ref="K26:K52" si="1">F28/SUM(H28+J28*0.5)</f>
-        <v>0.84871514488791688</v>
+        <v>3.7735849056603772E-2</v>
+      </c>
+      <c r="K28" s="5">
+        <f t="shared" ref="K28:K52" si="1">F28/SUM(H28+J28*0.5)</f>
+        <v>0.82985506198720504</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -1625,7 +1633,7 @@
         <v>1.3</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1635,12 +1643,12 @@
       <c r="H29" s="7"/>
       <c r="I29" s="5"/>
       <c r="J29" s="7"/>
-      <c r="K29" s="9"/>
+      <c r="K29" s="5"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="1">
         <v>6</v>
@@ -1654,25 +1662,25 @@
       </c>
       <c r="F30" s="7">
         <f>E30/SUM($E$23:$E$65)</f>
-        <v>6.4406779661016947E-2</v>
+        <v>5.2054794520547946E-2</v>
       </c>
       <c r="G30" s="5">
         <v>5</v>
       </c>
       <c r="H30" s="7">
         <f>G30/SUM($G$23:$G$65)</f>
-        <v>5.2631578947368418E-2</v>
+        <v>4.3859649122807015E-2</v>
       </c>
       <c r="I30" s="5">
         <v>4</v>
       </c>
       <c r="J30" s="7">
         <f>I30/SUM($I$23:$I$65)</f>
-        <v>4.6511627906976744E-2</v>
-      </c>
-      <c r="K30" s="9">
+        <v>3.7735849056603772E-2</v>
+      </c>
+      <c r="K30" s="5">
         <f t="shared" si="1"/>
-        <v>0.84871514488791688</v>
+        <v>0.82985506198720504</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -1686,7 +1694,7 @@
       <c r="H31" s="7"/>
       <c r="I31" s="5"/>
       <c r="J31" s="7"/>
-      <c r="K31" s="9"/>
+      <c r="K31" s="5"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
@@ -1703,7 +1711,7 @@
       <c r="H32" s="7"/>
       <c r="I32" s="5"/>
       <c r="J32" s="7"/>
-      <c r="K32" s="9"/>
+      <c r="K32" s="5"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
@@ -1720,7 +1728,7 @@
       <c r="H33" s="7"/>
       <c r="I33" s="5"/>
       <c r="J33" s="7"/>
-      <c r="K33" s="9"/>
+      <c r="K33" s="5"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
@@ -1739,39 +1747,64 @@
       </c>
       <c r="F34" s="7">
         <f>E34/SUM($E$23:$E$65)</f>
-        <v>8.8135593220338981E-2</v>
+        <v>7.1232876712328766E-2</v>
       </c>
       <c r="G34" s="5">
         <v>8</v>
       </c>
       <c r="H34" s="7">
         <f>G34/SUM($G$23:$G$65)</f>
-        <v>8.4210526315789472E-2</v>
+        <v>7.0175438596491224E-2</v>
       </c>
       <c r="I34" s="5">
         <v>7</v>
       </c>
       <c r="J34" s="7">
         <f>I34/SUM($I$23:$I$65)</f>
-        <v>8.1395348837209308E-2</v>
-      </c>
-      <c r="K34" s="9">
+        <v>6.6037735849056603E-2</v>
+      </c>
+      <c r="K34" s="5">
         <f t="shared" si="1"/>
-        <v>0.70560293641368887</v>
+        <v>0.69027913567905441</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="9"/>
+      <c r="B35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="1">
+        <v>7</v>
+      </c>
+      <c r="D35" s="1">
+        <v>8</v>
+      </c>
+      <c r="E35" s="5">
+        <f>SUM(C35*2+D35)</f>
+        <v>22</v>
+      </c>
+      <c r="F35" s="7">
+        <f>E35/SUM($E$23:$E$65)</f>
+        <v>6.0273972602739728E-2</v>
+      </c>
+      <c r="G35" s="5">
+        <v>8</v>
+      </c>
+      <c r="H35" s="7">
+        <f>G35/SUM($G$23:$G$65)</f>
+        <v>7.0175438596491224E-2</v>
+      </c>
+      <c r="I35" s="5">
+        <v>8</v>
+      </c>
+      <c r="J35" s="7">
+        <f>I35/SUM($I$23:$I$65)</f>
+        <v>7.5471698113207544E-2</v>
+      </c>
+      <c r="K35" s="5">
+        <f t="shared" si="1"/>
+        <v>0.5585511387511557</v>
+      </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
@@ -1788,7 +1821,7 @@
       <c r="H36" s="7"/>
       <c r="I36" s="5"/>
       <c r="J36" s="7"/>
-      <c r="K36" s="9"/>
+      <c r="K36" s="5"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
@@ -1802,30 +1835,30 @@
         <v>6</v>
       </c>
       <c r="E37" s="5">
-        <f t="shared" ref="E37:E40" si="3">SUM(C37*2+D37)</f>
+        <f t="shared" ref="E37:E41" si="3">SUM(C37*2+D37)</f>
         <v>20</v>
       </c>
       <c r="F37" s="7">
         <f>E37/SUM($E$23:$E$65)</f>
-        <v>6.7796610169491525E-2</v>
+        <v>5.4794520547945202E-2</v>
       </c>
       <c r="G37" s="5">
         <v>4</v>
       </c>
       <c r="H37" s="7">
         <f>G37/SUM($G$23:$G$65)</f>
-        <v>4.2105263157894736E-2</v>
+        <v>3.5087719298245612E-2</v>
       </c>
       <c r="I37" s="5">
         <v>4</v>
       </c>
       <c r="J37" s="7">
         <f>I37/SUM($I$23:$I$65)</f>
-        <v>4.6511627906976744E-2</v>
-      </c>
-      <c r="K37" s="9">
+        <v>3.7735849056603772E-2</v>
+      </c>
+      <c r="K37" s="5">
         <f t="shared" si="1"/>
-        <v>1.0372627436043926</v>
+        <v>1.0155475250021011</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -1845,31 +1878,31 @@
       </c>
       <c r="F38" s="7">
         <f>E38/SUM($E$23:$E$65)</f>
-        <v>4.7457627118644069E-2</v>
+        <v>3.8356164383561646E-2</v>
       </c>
       <c r="G38" s="5">
         <v>4</v>
       </c>
       <c r="H38" s="7">
         <f>G38/SUM($G$23:$G$65)</f>
-        <v>4.2105263157894736E-2</v>
+        <v>3.5087719298245612E-2</v>
       </c>
       <c r="I38" s="5">
         <v>4</v>
       </c>
       <c r="J38" s="7">
         <f>I38/SUM($I$23:$I$65)</f>
-        <v>4.6511627906976744E-2</v>
-      </c>
-      <c r="K38" s="9">
+        <v>3.7735849056603772E-2</v>
+      </c>
+      <c r="K38" s="5">
         <f t="shared" si="1"/>
-        <v>0.72608392052307491</v>
+        <v>0.71088326750147079</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="2" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C39" s="1">
         <v>5</v>
@@ -1883,276 +1916,274 @@
       </c>
       <c r="F39" s="7">
         <f>E39/SUM($E$23:$E$65)</f>
-        <v>5.0847457627118647E-2</v>
+        <v>4.1095890410958902E-2</v>
       </c>
       <c r="G39" s="5">
         <v>5</v>
       </c>
       <c r="H39" s="7">
         <f>G39/SUM($G$23:$G$65)</f>
-        <v>5.2631578947368418E-2</v>
+        <v>4.3859649122807015E-2</v>
       </c>
       <c r="I39" s="5">
         <v>4</v>
       </c>
       <c r="J39" s="7">
         <f>I39/SUM($I$23:$I$65)</f>
-        <v>4.6511627906976744E-2</v>
-      </c>
-      <c r="K39" s="9">
+        <v>3.7735849056603772E-2</v>
+      </c>
+      <c r="K39" s="5">
         <f t="shared" si="1"/>
-        <v>0.67003827227993451</v>
+        <v>0.65514873314779343</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C40" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D40" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E40" s="5">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F40" s="7">
         <f>E40/SUM($E$23:$E$65)</f>
-        <v>4.4067796610169491E-2</v>
+        <v>6.575342465753424E-2</v>
       </c>
       <c r="G40" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H40" s="7">
         <f>G40/SUM($G$23:$G$65)</f>
-        <v>6.3157894736842107E-2</v>
+        <v>4.3859649122807015E-2</v>
       </c>
       <c r="I40" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J40" s="7">
         <f>I40/SUM($I$23:$I$65)</f>
-        <v>4.6511627906976744E-2</v>
-      </c>
-      <c r="K40" s="9">
+        <v>5.6603773584905662E-2</v>
+      </c>
+      <c r="K40" s="5">
         <f t="shared" si="1"/>
-        <v>0.50996302876074329</v>
+        <v>0.91119768757069253</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+      <c r="B41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="1">
+        <v>8</v>
+      </c>
+      <c r="D41" s="1">
+        <v>8</v>
+      </c>
+      <c r="E41" s="5">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="F41" s="7">
+        <f>E41/SUM($E$23:$E$65)</f>
+        <v>6.575342465753424E-2</v>
+      </c>
+      <c r="G41" s="5">
+        <v>6</v>
+      </c>
+      <c r="H41" s="7">
+        <f>G41/SUM($G$23:$G$65)</f>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="I41" s="5">
+        <v>6</v>
+      </c>
+      <c r="J41" s="7">
+        <f>I41/SUM($I$23:$I$65)</f>
+        <v>5.6603773584905662E-2</v>
+      </c>
+      <c r="K41" s="5">
+        <f t="shared" si="1"/>
+        <v>0.81243802000168086</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="1">
+        <v>5</v>
+      </c>
+      <c r="D42" s="1">
         <v>3</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="9"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+      <c r="E42" s="5">
+        <f>SUM(C42*2+D42)</f>
+        <v>13</v>
+      </c>
+      <c r="F42" s="7">
+        <f>E42/SUM($E$23:$E$65)</f>
+        <v>3.5616438356164383E-2</v>
+      </c>
+      <c r="G42" s="5">
+        <v>6</v>
+      </c>
+      <c r="H42" s="7">
+        <f>G42/SUM($G$23:$G$65)</f>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="I42" s="5">
+        <v>4</v>
+      </c>
+      <c r="J42" s="7">
+        <f>I42/SUM($I$23:$I$65)</f>
+        <v>3.7735849056603772E-2</v>
+      </c>
+      <c r="K42" s="5">
+        <f>F42/SUM(H42+J42*0.5)</f>
+        <v>0.49813546423135469</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>3</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="5"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
         <v>3.1</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="9"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-      <c r="B43" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C43" s="1">
-        <v>6</v>
-      </c>
-      <c r="D43" s="1">
-        <v>7</v>
-      </c>
-      <c r="E43" s="5">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="F43" s="7">
-        <f>E43/SUM($E$23:$E$65)</f>
-        <v>6.4406779661016947E-2</v>
-      </c>
-      <c r="G43" s="5">
-        <v>6</v>
-      </c>
-      <c r="H43" s="7">
-        <f>G43/SUM($G$23:$G$65)</f>
-        <v>6.3157894736842107E-2</v>
-      </c>
-      <c r="I43" s="5">
-        <v>4</v>
-      </c>
-      <c r="J43" s="7">
-        <f>I43/SUM($I$23:$I$65)</f>
-        <v>4.6511627906976744E-2</v>
-      </c>
-      <c r="K43" s="9">
-        <f t="shared" si="1"/>
-        <v>0.74533058049647094</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-      <c r="B44" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44" s="1">
-        <v>5</v>
-      </c>
-      <c r="D44" s="1">
-        <v>5</v>
-      </c>
-      <c r="E44" s="5">
-        <f>SUM(C44*2+D44)</f>
-        <v>15</v>
-      </c>
-      <c r="F44" s="7">
-        <f>E44/SUM($E$23:$E$65)</f>
-        <v>5.0847457627118647E-2</v>
-      </c>
-      <c r="G44" s="5">
-        <v>6</v>
-      </c>
-      <c r="H44" s="7">
-        <f>G44/SUM($G$23:$G$65)</f>
-        <v>6.3157894736842107E-2</v>
-      </c>
-      <c r="I44" s="5">
-        <v>4</v>
-      </c>
-      <c r="J44" s="7">
-        <f>I44/SUM($I$23:$I$65)</f>
-        <v>4.6511627906976744E-2</v>
-      </c>
-      <c r="K44" s="9">
-        <f t="shared" si="1"/>
-        <v>0.58841887933931913</v>
-      </c>
+      <c r="B44" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="5"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>3.2</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="9"/>
+      <c r="B45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="1">
+        <v>6</v>
+      </c>
+      <c r="D45" s="1">
+        <v>7</v>
+      </c>
+      <c r="E45" s="5">
+        <f>SUM(C45*2+D45)</f>
+        <v>19</v>
+      </c>
+      <c r="F45" s="7">
+        <f>E45/SUM($E$23:$E$65)</f>
+        <v>5.2054794520547946E-2</v>
+      </c>
+      <c r="G45" s="5">
+        <v>6</v>
+      </c>
+      <c r="H45" s="7">
+        <f>G45/SUM($G$23:$G$65)</f>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="I45" s="5">
+        <v>4</v>
+      </c>
+      <c r="J45" s="7">
+        <f>I45/SUM($I$23:$I$65)</f>
+        <v>3.7735849056603772E-2</v>
+      </c>
+      <c r="K45" s="5">
+        <f>F45/SUM(H45+J45*0.5)</f>
+        <v>0.72804414003044149</v>
+      </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
-      <c r="B46" s="2" t="s">
-        <v>24</v>
+      <c r="B46" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="C46" s="1">
         <v>5</v>
       </c>
       <c r="D46" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E46" s="5">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>SUM(C46*2+D46)</f>
+        <v>15</v>
       </c>
       <c r="F46" s="7">
         <f>E46/SUM($E$23:$E$65)</f>
-        <v>5.4237288135593219E-2</v>
+        <v>4.1095890410958902E-2</v>
       </c>
       <c r="G46" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H46" s="7">
         <f>G46/SUM($G$23:$G$65)</f>
-        <v>4.2105263157894736E-2</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="I46" s="5">
         <v>4</v>
       </c>
       <c r="J46" s="7">
         <f>I46/SUM($I$23:$I$65)</f>
-        <v>4.6511627906976744E-2</v>
-      </c>
-      <c r="K46" s="9">
-        <f t="shared" si="1"/>
-        <v>0.82981019488351415</v>
+        <v>3.7735849056603772E-2</v>
+      </c>
+      <c r="K46" s="5">
+        <f>F46/SUM(H46+J46*0.5)</f>
+        <v>0.57477168949771695</v>
       </c>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
-      <c r="B47" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" s="1">
-        <v>5</v>
-      </c>
-      <c r="D47" s="1">
-        <v>6</v>
-      </c>
-      <c r="E47" s="5">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="F47" s="7">
-        <f>E47/SUM($E$23:$E$65)</f>
-        <v>5.4237288135593219E-2</v>
-      </c>
-      <c r="G47" s="5">
-        <v>4</v>
-      </c>
-      <c r="H47" s="7">
-        <f>G47/SUM($G$23:$G$65)</f>
-        <v>4.2105263157894736E-2</v>
-      </c>
-      <c r="I47" s="5">
-        <v>4</v>
-      </c>
-      <c r="J47" s="7">
-        <f>I47/SUM($I$23:$I$65)</f>
-        <v>4.6511627906976744E-2</v>
-      </c>
-      <c r="K47" s="9">
-        <f t="shared" si="1"/>
-        <v>0.82981019488351415</v>
-      </c>
+      <c r="B47" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="5"/>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C48" s="1">
         <v>5</v>
@@ -2161,38 +2192,38 @@
         <v>6</v>
       </c>
       <c r="E48" s="5">
-        <f t="shared" ref="E48:E53" si="4">SUM(C48*2+D48)</f>
+        <f>SUM(C48*2+D48)</f>
         <v>16</v>
       </c>
       <c r="F48" s="7">
-        <f t="shared" ref="F48:F53" si="5">E48/SUM($E$23:$E$65)</f>
-        <v>5.4237288135593219E-2</v>
+        <f>E48/SUM($E$23:$E$65)</f>
+        <v>4.3835616438356165E-2</v>
       </c>
       <c r="G48" s="5">
         <v>4</v>
       </c>
       <c r="H48" s="7">
-        <f t="shared" ref="H48:H53" si="6">G48/SUM($G$23:$G$65)</f>
-        <v>4.2105263157894736E-2</v>
+        <f>G48/SUM($G$23:$G$65)</f>
+        <v>3.5087719298245612E-2</v>
       </c>
       <c r="I48" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J48" s="7">
-        <f t="shared" ref="J48:J53" si="7">I48/SUM($I$23:$I$65)</f>
-        <v>5.8139534883720929E-2</v>
-      </c>
-      <c r="K48" s="9">
-        <f t="shared" si="1"/>
-        <v>0.76202690295407838</v>
+        <f>I48/SUM($I$23:$I$65)</f>
+        <v>3.7735849056603772E-2</v>
+      </c>
+      <c r="K48" s="5">
+        <f>F48/SUM(H48+J48*0.5)</f>
+        <v>0.81243802000168086</v>
       </c>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
-      <c r="B49" s="6" t="s">
-        <v>31</v>
+      <c r="B49" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C49" s="1">
         <v>5</v>
@@ -2201,38 +2232,38 @@
         <v>6</v>
       </c>
       <c r="E49" s="5">
-        <f t="shared" si="4"/>
+        <f>SUM(C49*2+D49)</f>
         <v>16</v>
       </c>
       <c r="F49" s="7">
-        <f t="shared" si="5"/>
-        <v>5.4237288135593219E-2</v>
+        <f>E49/SUM($E$23:$E$65)</f>
+        <v>4.3835616438356165E-2</v>
       </c>
       <c r="G49" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H49" s="7">
-        <f t="shared" si="6"/>
-        <v>7.3684210526315783E-2</v>
+        <f>G49/SUM($G$23:$G$65)</f>
+        <v>3.5087719298245612E-2</v>
       </c>
       <c r="I49" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J49" s="7">
-        <f t="shared" si="7"/>
-        <v>6.9767441860465115E-2</v>
-      </c>
-      <c r="K49" s="9">
-        <f t="shared" si="1"/>
-        <v>0.49957006095580231</v>
+        <f>I49/SUM($I$23:$I$65)</f>
+        <v>3.7735849056603772E-2</v>
+      </c>
+      <c r="K49" s="5">
+        <f>F49/SUM(H49+J49*0.5)</f>
+        <v>0.81243802000168086</v>
       </c>
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
-      <c r="B50" s="1" t="s">
-        <v>32</v>
+      <c r="B50" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C50" s="1">
         <v>5</v>
@@ -2241,38 +2272,38 @@
         <v>6</v>
       </c>
       <c r="E50" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="E50:E54" si="4">SUM(C50*2+D50)</f>
         <v>16</v>
       </c>
       <c r="F50" s="7">
-        <f t="shared" si="5"/>
-        <v>5.4237288135593219E-2</v>
+        <f>E50/SUM($E$23:$E$65)</f>
+        <v>4.3835616438356165E-2</v>
       </c>
       <c r="G50" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H50" s="7">
-        <f t="shared" si="6"/>
-        <v>8.4210526315789472E-2</v>
+        <f>G50/SUM($G$23:$G$65)</f>
+        <v>3.5087719298245612E-2</v>
       </c>
       <c r="I50" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J50" s="7">
-        <f t="shared" si="7"/>
-        <v>8.1395348837209308E-2</v>
-      </c>
-      <c r="K50" s="9">
-        <f t="shared" si="1"/>
-        <v>0.43421719163919315</v>
+        <f>I50/SUM($I$23:$I$65)</f>
+        <v>4.716981132075472E-2</v>
+      </c>
+      <c r="K50" s="5">
+        <f>F50/SUM(H50+J50*0.5)</f>
+        <v>0.74712212840775161</v>
       </c>
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
-      <c r="B51" s="1" t="s">
-        <v>33</v>
+      <c r="B51" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="C51" s="1">
         <v>5</v>
@@ -2285,26 +2316,26 @@
         <v>16</v>
       </c>
       <c r="F51" s="7">
-        <f t="shared" si="5"/>
-        <v>5.4237288135593219E-2</v>
+        <f>E51/SUM($E$23:$E$65)</f>
+        <v>4.3835616438356165E-2</v>
       </c>
       <c r="G51" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H51" s="7">
-        <f t="shared" si="6"/>
-        <v>8.4210526315789472E-2</v>
+        <f>G51/SUM($G$23:$G$65)</f>
+        <v>6.1403508771929821E-2</v>
       </c>
       <c r="I51" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J51" s="7">
-        <f t="shared" si="7"/>
-        <v>9.3023255813953487E-2</v>
-      </c>
-      <c r="K51" s="9">
-        <f t="shared" si="1"/>
-        <v>0.41490509744175708</v>
+        <f>I51/SUM($I$23:$I$65)</f>
+        <v>5.6603773584905662E-2</v>
+      </c>
+      <c r="K51" s="5">
+        <f>F51/SUM(H51+J51*0.5)</f>
+        <v>0.48866198251023613</v>
       </c>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
@@ -2312,7 +2343,7 @@
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C52" s="1">
         <v>5</v>
@@ -2325,57 +2356,107 @@
         <v>16</v>
       </c>
       <c r="F52" s="7">
-        <f t="shared" si="5"/>
-        <v>5.4237288135593219E-2</v>
+        <f>E52/SUM($E$23:$E$65)</f>
+        <v>4.3835616438356165E-2</v>
       </c>
       <c r="G52" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H52" s="7">
-        <f t="shared" si="6"/>
-        <v>6.3157894736842107E-2</v>
+        <f>G52/SUM($G$23:$G$65)</f>
+        <v>7.0175438596491224E-2</v>
       </c>
       <c r="I52" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J52" s="7">
-        <f t="shared" si="7"/>
-        <v>0.10465116279069768</v>
-      </c>
-      <c r="K52" s="9">
-        <f t="shared" si="1"/>
-        <v>0.46965410076078068</v>
+        <f>I52/SUM($I$23:$I$65)</f>
+        <v>6.6037735849056603E-2</v>
+      </c>
+      <c r="K52" s="5">
+        <f>F52/SUM(H52+J52*0.5)</f>
+        <v>0.42478716041787967</v>
       </c>
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="5"/>
+      <c r="B53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" s="1">
+        <v>5</v>
+      </c>
+      <c r="D53" s="1">
+        <v>6</v>
+      </c>
+      <c r="E53" s="5">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="F53" s="7">
+        <f>E53/SUM($E$23:$E$65)</f>
+        <v>4.3835616438356165E-2</v>
+      </c>
+      <c r="G53" s="5">
+        <v>8</v>
+      </c>
+      <c r="H53" s="7">
+        <f>G53/SUM($G$23:$G$65)</f>
+        <v>7.0175438596491224E-2</v>
+      </c>
+      <c r="I53" s="5">
+        <v>8</v>
+      </c>
+      <c r="J53" s="7">
+        <f>I53/SUM($I$23:$I$65)</f>
+        <v>7.5471698113207544E-2</v>
+      </c>
+      <c r="K53" s="5">
+        <f>F53/SUM(H53+J53*0.5)</f>
+        <v>0.40621901000084043</v>
+      </c>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="5"/>
+      <c r="B54" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" s="1">
+        <v>5</v>
+      </c>
+      <c r="D54" s="1">
+        <v>6</v>
+      </c>
+      <c r="E54" s="5">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="F54" s="7">
+        <f>E54/SUM($E$23:$E$65)</f>
+        <v>4.3835616438356165E-2</v>
+      </c>
+      <c r="G54" s="5">
+        <v>6</v>
+      </c>
+      <c r="H54" s="7">
+        <f>G54/SUM($G$23:$G$65)</f>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="I54" s="5">
+        <v>9</v>
+      </c>
+      <c r="J54" s="7">
+        <f>I54/SUM($I$23:$I$65)</f>
+        <v>8.4905660377358486E-2</v>
+      </c>
+      <c r="K54" s="5">
+        <f>F54/SUM(H54+J54*0.5)</f>
+        <v>0.46101791909581896</v>
+      </c>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
     </row>

--- a/需求优先级打分/SRA2023-G17-需求优先级打分（管理员）(1).xlsx
+++ b/需求优先级打分/SRA2023-G17-需求优先级打分（管理员）(1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\时蒙恩\Desktop\计算机系统原理实验\软件工程\Request\需求优先级打分\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCAD3F6-8F89-45B9-9158-FB8394025652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4CB924-2F6A-4277-B24C-EB01651EE0F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="2385" windowWidth="27045" windowHeight="12870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="27045" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>相对权重</t>
   </si>
@@ -103,10 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 审核</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,10 +179,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  账号注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 修改密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -208,6 +200,22 @@
   </si>
   <si>
     <t xml:space="preserve">  用户管理-用户增删</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  论坛版块管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  帖子标签管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  用户管理-黑名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  课程学生增删</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1118,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25:K54"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1181,7 +1189,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1">
         <f>SUM((C:C)*2,(D:D))</f>
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -1525,7 +1533,7 @@
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="1">
         <v>9</v>
@@ -1539,30 +1547,34 @@
       </c>
       <c r="F25" s="7">
         <f>E25/SUM($E$23:$E$65)</f>
-        <v>6.3013698630136991E-2</v>
+        <v>5.4892601431980909E-2</v>
       </c>
       <c r="G25" s="5">
         <v>5</v>
       </c>
       <c r="H25" s="7">
         <f>G25/SUM($G$23:$G$65)</f>
-        <v>4.3859649122807015E-2</v>
+        <v>3.8461538461538464E-2</v>
       </c>
       <c r="I25" s="5">
         <v>4</v>
       </c>
       <c r="J25" s="7">
         <f>I25/SUM($I$23:$I$65)</f>
-        <v>3.7735849056603772E-2</v>
+        <v>3.2786885245901641E-2</v>
       </c>
       <c r="K25" s="5">
         <f>F25/SUM(H25+J25*0.5)</f>
-        <v>1.0045613908266167</v>
+        <v>1.0006858146105944</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
+      <c r="A26" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="5"/>
@@ -1574,66 +1586,62 @@
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>1.2</v>
-      </c>
+      <c r="A27" s="1"/>
       <c r="B27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="C27" s="1">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1">
+        <v>7</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" ref="E27" si="0">SUM(C27*2+D27)</f>
+        <v>19</v>
+      </c>
+      <c r="F27" s="7">
+        <f>E27/SUM($E$23:$E$65)</f>
+        <v>4.5346062052505964E-2</v>
+      </c>
+      <c r="G27" s="5">
+        <v>5</v>
+      </c>
+      <c r="H27" s="7">
+        <f>G27/SUM($G$23:$G$65)</f>
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="I27" s="5">
+        <v>4</v>
+      </c>
+      <c r="J27" s="7">
+        <f>I27/SUM($I$23:$I$65)</f>
+        <v>3.2786885245901641E-2</v>
+      </c>
+      <c r="K27" s="5">
+        <f>F27/SUM(H27+J27*0.5)</f>
+        <v>0.82665349902614316</v>
+      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="1">
-        <v>7</v>
-      </c>
-      <c r="D28" s="1">
-        <v>5</v>
-      </c>
-      <c r="E28" s="5">
-        <f t="shared" ref="E28:E47" si="0">SUM(C28*2+D28)</f>
-        <v>19</v>
-      </c>
-      <c r="F28" s="7">
-        <f>E28/SUM($E$23:$E$65)</f>
-        <v>5.2054794520547946E-2</v>
-      </c>
-      <c r="G28" s="5">
-        <v>5</v>
-      </c>
-      <c r="H28" s="7">
-        <f>G28/SUM($G$23:$G$65)</f>
-        <v>4.3859649122807015E-2</v>
-      </c>
-      <c r="I28" s="5">
-        <v>4</v>
-      </c>
-      <c r="J28" s="7">
-        <f>I28/SUM($I$23:$I$65)</f>
-        <v>3.7735849056603772E-2</v>
-      </c>
-      <c r="K28" s="5">
-        <f t="shared" ref="K28:K52" si="1">F28/SUM(H28+J28*0.5)</f>
-        <v>0.82985506198720504</v>
-      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>36</v>
+        <v>2</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1646,79 +1654,104 @@
       <c r="K29" s="5"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="1">
-        <v>6</v>
-      </c>
-      <c r="D30" s="1">
-        <v>7</v>
-      </c>
-      <c r="E30" s="5">
-        <f t="shared" ref="E30" si="2">SUM(C30*2+D30)</f>
-        <v>19</v>
-      </c>
-      <c r="F30" s="7">
-        <f>E30/SUM($E$23:$E$65)</f>
-        <v>5.2054794520547946E-2</v>
-      </c>
-      <c r="G30" s="5">
-        <v>5</v>
-      </c>
-      <c r="H30" s="7">
-        <f>G30/SUM($G$23:$G$65)</f>
-        <v>4.3859649122807015E-2</v>
-      </c>
-      <c r="I30" s="5">
-        <v>4</v>
-      </c>
-      <c r="J30" s="7">
-        <f>I30/SUM($I$23:$I$65)</f>
-        <v>3.7735849056603772E-2</v>
-      </c>
-      <c r="K30" s="5">
-        <f t="shared" si="1"/>
-        <v>0.82985506198720504</v>
-      </c>
+      <c r="A30" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="5"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="5"/>
+      <c r="B31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="1">
+        <v>9</v>
+      </c>
+      <c r="D31" s="1">
+        <v>8</v>
+      </c>
+      <c r="E31" s="5">
+        <f>SUM(C31*2+D31)</f>
+        <v>26</v>
+      </c>
+      <c r="F31" s="7">
+        <f>E31/SUM($E$23:$E$65)</f>
+        <v>6.205250596658711E-2</v>
+      </c>
+      <c r="G31" s="5">
+        <v>8</v>
+      </c>
+      <c r="H31" s="7">
+        <f>G31/SUM($G$23:$G$65)</f>
+        <v>6.1538461538461542E-2</v>
+      </c>
+      <c r="I31" s="5">
+        <v>7</v>
+      </c>
+      <c r="J31" s="7">
+        <f>I31/SUM($I$23:$I$65)</f>
+        <v>5.737704918032787E-2</v>
+      </c>
+      <c r="K31" s="5">
+        <f>F31/SUM(H31+J31*0.5)</f>
+        <v>0.687737767037087</v>
+      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>2</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="5"/>
+      <c r="A32" s="1"/>
+      <c r="B32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="1">
+        <v>7</v>
+      </c>
+      <c r="D32" s="1">
+        <v>8</v>
+      </c>
+      <c r="E32" s="5">
+        <f>SUM(C32*2+D32)</f>
+        <v>22</v>
+      </c>
+      <c r="F32" s="7">
+        <f>E32/SUM($E$23:$E$65)</f>
+        <v>5.2505966587112173E-2</v>
+      </c>
+      <c r="G32" s="5">
+        <v>8</v>
+      </c>
+      <c r="H32" s="7">
+        <f>G32/SUM($G$23:$G$65)</f>
+        <v>6.1538461538461542E-2</v>
+      </c>
+      <c r="I32" s="5">
+        <v>8</v>
+      </c>
+      <c r="J32" s="7">
+        <f>I32/SUM($I$23:$I$65)</f>
+        <v>6.5573770491803282E-2</v>
+      </c>
+      <c r="K32" s="5">
+        <f>F32/SUM(H32+J32*0.5)</f>
+        <v>0.55664747999438435</v>
+      </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>16</v>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1736,534 +1769,516 @@
         <v>18</v>
       </c>
       <c r="C34" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D34" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E34" s="5">
-        <f>SUM(C34*2+D34)</f>
-        <v>26</v>
+        <f t="shared" ref="E34:E39" si="1">SUM(C34*2+D34)</f>
+        <v>20</v>
       </c>
       <c r="F34" s="7">
         <f>E34/SUM($E$23:$E$65)</f>
-        <v>7.1232876712328766E-2</v>
+        <v>4.77326968973747E-2</v>
       </c>
       <c r="G34" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H34" s="7">
         <f>G34/SUM($G$23:$G$65)</f>
-        <v>7.0175438596491224E-2</v>
+        <v>3.0769230769230771E-2</v>
       </c>
       <c r="I34" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J34" s="7">
         <f>I34/SUM($I$23:$I$65)</f>
-        <v>6.6037735849056603E-2</v>
+        <v>3.2786885245901641E-2</v>
       </c>
       <c r="K34" s="5">
-        <f t="shared" si="1"/>
-        <v>0.69027913567905441</v>
+        <f>F34/SUM(H34+J34*0.5)</f>
+        <v>1.0120863272625169</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="2" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C35" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D35" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E35" s="5">
-        <f>SUM(C35*2+D35)</f>
-        <v>22</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="F35" s="7">
         <f>E35/SUM($E$23:$E$65)</f>
-        <v>6.0273972602739728E-2</v>
+        <v>3.3412887828162291E-2</v>
       </c>
       <c r="G35" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H35" s="7">
         <f>G35/SUM($G$23:$G$65)</f>
-        <v>7.0175438596491224E-2</v>
+        <v>3.0769230769230771E-2</v>
       </c>
       <c r="I35" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J35" s="7">
         <f>I35/SUM($I$23:$I$65)</f>
-        <v>7.5471698113207544E-2</v>
+        <v>3.2786885245901641E-2</v>
       </c>
       <c r="K35" s="5">
+        <f>F35/SUM(H35+J35*0.5)</f>
+        <v>0.70846042908376183</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="1">
+        <v>5</v>
+      </c>
+      <c r="D36" s="1">
+        <v>5</v>
+      </c>
+      <c r="E36" s="5">
         <f t="shared" si="1"/>
-        <v>0.5585511387511557</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="F36" s="7">
+        <f>E36/SUM($E$23:$E$65)</f>
+        <v>3.5799522673031027E-2</v>
+      </c>
+      <c r="G36" s="5">
+        <v>5</v>
+      </c>
+      <c r="H36" s="7">
+        <f>G36/SUM($G$23:$G$65)</f>
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="I36" s="5">
+        <v>4</v>
+      </c>
+      <c r="J36" s="7">
+        <f>I36/SUM($I$23:$I$65)</f>
+        <v>3.2786885245901641E-2</v>
+      </c>
+      <c r="K36" s="5">
+        <f>F36/SUM(H36+J36*0.5)</f>
+        <v>0.65262118344169195</v>
+      </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="2" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C37" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D37" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E37" s="5">
-        <f t="shared" ref="E37:E41" si="3">SUM(C37*2+D37)</f>
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>24</v>
       </c>
       <c r="F37" s="7">
         <f>E37/SUM($E$23:$E$65)</f>
-        <v>5.4794520547945202E-2</v>
+        <v>5.7279236276849645E-2</v>
       </c>
       <c r="G37" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H37" s="7">
         <f>G37/SUM($G$23:$G$65)</f>
-        <v>3.5087719298245612E-2</v>
+        <v>3.8461538461538464E-2</v>
       </c>
       <c r="I37" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J37" s="7">
         <f>I37/SUM($I$23:$I$65)</f>
-        <v>3.7735849056603772E-2</v>
+        <v>4.9180327868852458E-2</v>
       </c>
       <c r="K37" s="5">
+        <f>F37/SUM(H37+J37*0.5)</f>
+        <v>0.90844868735083539</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="1">
+        <v>8</v>
+      </c>
+      <c r="D38" s="1">
+        <v>8</v>
+      </c>
+      <c r="E38" s="5">
         <f t="shared" si="1"/>
-        <v>1.0155475250021011</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="1">
-        <v>5</v>
-      </c>
-      <c r="D38" s="1">
-        <v>4</v>
-      </c>
-      <c r="E38" s="5">
-        <f t="shared" si="3"/>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F38" s="7">
         <f>E38/SUM($E$23:$E$65)</f>
-        <v>3.8356164383561646E-2</v>
+        <v>5.7279236276849645E-2</v>
       </c>
       <c r="G38" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H38" s="7">
         <f>G38/SUM($G$23:$G$65)</f>
-        <v>3.5087719298245612E-2</v>
+        <v>4.6153846153846156E-2</v>
       </c>
       <c r="I38" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J38" s="7">
         <f>I38/SUM($I$23:$I$65)</f>
-        <v>3.7735849056603772E-2</v>
+        <v>4.9180327868852458E-2</v>
       </c>
       <c r="K38" s="5">
+        <f>F38/SUM(H38+J38*0.5)</f>
+        <v>0.80966906181001363</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="1">
+        <v>7</v>
+      </c>
+      <c r="D39" s="1">
+        <v>7</v>
+      </c>
+      <c r="E39" s="5">
         <f t="shared" si="1"/>
-        <v>0.71088326750147079</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="1">
-        <v>5</v>
-      </c>
-      <c r="D39" s="1">
-        <v>5</v>
-      </c>
-      <c r="E39" s="5">
-        <f t="shared" si="3"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F39" s="7">
         <f>E39/SUM($E$23:$E$65)</f>
-        <v>4.1095890410958902E-2</v>
+        <v>5.0119331742243436E-2</v>
       </c>
       <c r="G39" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H39" s="7">
         <f>G39/SUM($G$23:$G$65)</f>
-        <v>4.3859649122807015E-2</v>
+        <v>4.6153846153846156E-2</v>
       </c>
       <c r="I39" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J39" s="7">
         <f>I39/SUM($I$23:$I$65)</f>
-        <v>3.7735849056603772E-2</v>
+        <v>5.737704918032787E-2</v>
       </c>
       <c r="K39" s="5">
-        <f t="shared" si="1"/>
-        <v>0.65514873314779343</v>
+        <f>F39/SUM(H39+J39*0.5)</f>
+        <v>0.66966520760908244</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
       <c r="B40" s="2" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C40" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D40" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E40" s="5">
-        <f t="shared" si="3"/>
-        <v>24</v>
+        <f>SUM(C40*2+D40)</f>
+        <v>13</v>
       </c>
       <c r="F40" s="7">
         <f>E40/SUM($E$23:$E$65)</f>
-        <v>6.575342465753424E-2</v>
+        <v>3.1026252983293555E-2</v>
       </c>
       <c r="G40" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H40" s="7">
         <f>G40/SUM($G$23:$G$65)</f>
-        <v>4.3859649122807015E-2</v>
+        <v>4.6153846153846156E-2</v>
       </c>
       <c r="I40" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J40" s="7">
         <f>I40/SUM($I$23:$I$65)</f>
-        <v>5.6603773584905662E-2</v>
+        <v>3.2786885245901641E-2</v>
       </c>
       <c r="K40" s="5">
-        <f t="shared" si="1"/>
-        <v>0.91119768757069253</v>
+        <f>F40/SUM(H40+J40*0.5)</f>
+        <v>0.49604473015628603</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D41" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E41" s="5">
-        <f t="shared" si="3"/>
-        <v>24</v>
+        <f>SUM(C41*2+D41)</f>
+        <v>19</v>
       </c>
       <c r="F41" s="7">
         <f>E41/SUM($E$23:$E$65)</f>
-        <v>6.575342465753424E-2</v>
+        <v>4.5346062052505964E-2</v>
       </c>
       <c r="G41" s="5">
         <v>6</v>
       </c>
       <c r="H41" s="7">
         <f>G41/SUM($G$23:$G$65)</f>
-        <v>5.2631578947368418E-2</v>
+        <v>4.6153846153846156E-2</v>
       </c>
       <c r="I41" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J41" s="7">
         <f>I41/SUM($I$23:$I$65)</f>
-        <v>5.6603773584905662E-2</v>
+        <v>4.0983606557377046E-2</v>
       </c>
       <c r="K41" s="5">
-        <f t="shared" si="1"/>
-        <v>0.81243802000168086</v>
+        <f>F41/SUM(H41+J41*0.5)</f>
+        <v>0.68040543439237899</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C42" s="1">
         <v>5</v>
       </c>
       <c r="D42" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E42" s="5">
         <f>SUM(C42*2+D42)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F42" s="7">
         <f>E42/SUM($E$23:$E$65)</f>
-        <v>3.5616438356164383E-2</v>
+        <v>3.5799522673031027E-2</v>
       </c>
       <c r="G42" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H42" s="7">
         <f>G42/SUM($G$23:$G$65)</f>
-        <v>5.2631578947368418E-2</v>
+        <v>3.0769230769230771E-2</v>
       </c>
       <c r="I42" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J42" s="7">
         <f>I42/SUM($I$23:$I$65)</f>
-        <v>3.7735849056603772E-2</v>
+        <v>2.4590163934426229E-2</v>
       </c>
       <c r="K42" s="5">
         <f>F42/SUM(H42+J42*0.5)</f>
-        <v>0.49813546423135469</v>
+        <v>0.83130370365193573</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>3</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="5"/>
+      <c r="B43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="1">
+        <v>6</v>
+      </c>
+      <c r="D43" s="1">
+        <v>6</v>
+      </c>
+      <c r="E43" s="5">
+        <f>SUM(C43*2+D43)</f>
+        <v>18</v>
+      </c>
+      <c r="F43" s="7">
+        <f>E43/SUM($E$23:$E$65)</f>
+        <v>4.2959427207637228E-2</v>
+      </c>
+      <c r="G43" s="5">
+        <v>5</v>
+      </c>
+      <c r="H43" s="7">
+        <f>G43/SUM($G$23:$G$65)</f>
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="I43" s="5">
+        <v>5</v>
+      </c>
+      <c r="J43" s="7">
+        <f>I43/SUM($I$23:$I$65)</f>
+        <v>4.0983606557377046E-2</v>
+      </c>
+      <c r="K43" s="5">
+        <f>F43/SUM(H43+J43*0.5)</f>
+        <v>0.7287021556290123</v>
+      </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>3.1</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="5"/>
+      <c r="B44" s="2"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>3.2</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" s="1">
-        <v>6</v>
-      </c>
-      <c r="D45" s="1">
-        <v>7</v>
-      </c>
-      <c r="E45" s="5">
-        <f>SUM(C45*2+D45)</f>
-        <v>19</v>
-      </c>
-      <c r="F45" s="7">
-        <f>E45/SUM($E$23:$E$65)</f>
-        <v>5.2054794520547946E-2</v>
-      </c>
-      <c r="G45" s="5">
-        <v>6</v>
-      </c>
-      <c r="H45" s="7">
-        <f>G45/SUM($G$23:$G$65)</f>
-        <v>5.2631578947368418E-2</v>
-      </c>
-      <c r="I45" s="5">
-        <v>4</v>
-      </c>
-      <c r="J45" s="7">
-        <f>I45/SUM($I$23:$I$65)</f>
-        <v>3.7735849056603772E-2</v>
-      </c>
-      <c r="K45" s="5">
-        <f>F45/SUM(H45+J45*0.5)</f>
-        <v>0.72804414003044149</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="5"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
-      <c r="B46" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C46" s="1">
-        <v>5</v>
-      </c>
-      <c r="D46" s="1">
-        <v>5</v>
-      </c>
-      <c r="E46" s="5">
-        <f>SUM(C46*2+D46)</f>
-        <v>15</v>
-      </c>
-      <c r="F46" s="7">
-        <f>E46/SUM($E$23:$E$65)</f>
-        <v>4.1095890410958902E-2</v>
-      </c>
-      <c r="G46" s="5">
-        <v>6</v>
-      </c>
-      <c r="H46" s="7">
-        <f>G46/SUM($G$23:$G$65)</f>
-        <v>5.2631578947368418E-2</v>
-      </c>
-      <c r="I46" s="5">
-        <v>4</v>
-      </c>
-      <c r="J46" s="7">
-        <f>I46/SUM($I$23:$I$65)</f>
-        <v>3.7735849056603772E-2</v>
-      </c>
-      <c r="K46" s="5">
-        <f>F46/SUM(H46+J46*0.5)</f>
-        <v>0.57477168949771695</v>
-      </c>
+      <c r="A46" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
-      <c r="B47" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="5"/>
+      <c r="A47" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="1">
+        <v>6</v>
+      </c>
+      <c r="D47" s="1">
+        <v>7</v>
+      </c>
+      <c r="E47" s="5">
+        <f>SUM(C47*2+D47)</f>
+        <v>19</v>
+      </c>
+      <c r="F47" s="7">
+        <f>E47/SUM($E$23:$E$65)</f>
+        <v>4.5346062052505964E-2</v>
+      </c>
+      <c r="G47" s="5">
+        <v>6</v>
+      </c>
+      <c r="H47" s="7">
+        <f>G47/SUM($G$23:$G$65)</f>
+        <v>4.6153846153846156E-2</v>
+      </c>
+      <c r="I47" s="5">
+        <v>4</v>
+      </c>
+      <c r="J47" s="7">
+        <f>I47/SUM($I$23:$I$65)</f>
+        <v>3.2786885245901641E-2</v>
+      </c>
+      <c r="K47" s="5">
+        <f>F47/SUM(H47+J47*0.5)</f>
+        <v>0.72498845176687954</v>
+      </c>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
-      <c r="B48" s="2" t="s">
-        <v>23</v>
+      <c r="B48" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="C48" s="1">
         <v>5</v>
       </c>
       <c r="D48" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E48" s="5">
         <f>SUM(C48*2+D48)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F48" s="7">
         <f>E48/SUM($E$23:$E$65)</f>
-        <v>4.3835616438356165E-2</v>
+        <v>3.5799522673031027E-2</v>
       </c>
       <c r="G48" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H48" s="7">
         <f>G48/SUM($G$23:$G$65)</f>
-        <v>3.5087719298245612E-2</v>
+        <v>4.6153846153846156E-2</v>
       </c>
       <c r="I48" s="5">
         <v>4</v>
       </c>
       <c r="J48" s="7">
         <f>I48/SUM($I$23:$I$65)</f>
-        <v>3.7735849056603772E-2</v>
+        <v>3.2786885245901641E-2</v>
       </c>
       <c r="K48" s="5">
         <f>F48/SUM(H48+J48*0.5)</f>
-        <v>0.81243802000168086</v>
+        <v>0.57235930402648394</v>
       </c>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
-      <c r="B49" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" s="1">
-        <v>5</v>
-      </c>
-      <c r="D49" s="1">
-        <v>6</v>
-      </c>
-      <c r="E49" s="5">
-        <f>SUM(C49*2+D49)</f>
-        <v>16</v>
-      </c>
-      <c r="F49" s="7">
-        <f>E49/SUM($E$23:$E$65)</f>
-        <v>4.3835616438356165E-2</v>
-      </c>
-      <c r="G49" s="5">
-        <v>4</v>
-      </c>
-      <c r="H49" s="7">
-        <f>G49/SUM($G$23:$G$65)</f>
-        <v>3.5087719298245612E-2</v>
-      </c>
-      <c r="I49" s="5">
-        <v>4</v>
-      </c>
-      <c r="J49" s="7">
-        <f>I49/SUM($I$23:$I$65)</f>
-        <v>3.7735849056603772E-2</v>
-      </c>
-      <c r="K49" s="5">
-        <f>F49/SUM(H49+J49*0.5)</f>
-        <v>0.81243802000168086</v>
-      </c>
+      <c r="B49" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="5"/>
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C50" s="1">
         <v>5</v>
@@ -2272,38 +2287,38 @@
         <v>6</v>
       </c>
       <c r="E50" s="5">
-        <f t="shared" ref="E50:E54" si="4">SUM(C50*2+D50)</f>
+        <f>SUM(C50*2+D50)</f>
         <v>16</v>
       </c>
       <c r="F50" s="7">
         <f>E50/SUM($E$23:$E$65)</f>
-        <v>4.3835616438356165E-2</v>
+        <v>3.8186157517899763E-2</v>
       </c>
       <c r="G50" s="5">
         <v>4</v>
       </c>
       <c r="H50" s="7">
         <f>G50/SUM($G$23:$G$65)</f>
-        <v>3.5087719298245612E-2</v>
+        <v>3.0769230769230771E-2</v>
       </c>
       <c r="I50" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J50" s="7">
         <f>I50/SUM($I$23:$I$65)</f>
-        <v>4.716981132075472E-2</v>
+        <v>3.2786885245901641E-2</v>
       </c>
       <c r="K50" s="5">
-        <f>F50/SUM(H50+J50*0.5)</f>
-        <v>0.74712212840775161</v>
+        <f t="shared" ref="K50:K56" si="2">F50/SUM(H50+J50*0.5)</f>
+        <v>0.80966906181001363</v>
       </c>
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
-      <c r="B51" s="6" t="s">
-        <v>30</v>
+      <c r="B51" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C51" s="1">
         <v>5</v>
@@ -2312,38 +2327,38 @@
         <v>6</v>
       </c>
       <c r="E51" s="5">
-        <f t="shared" si="4"/>
+        <f>SUM(C51*2+D51)</f>
         <v>16</v>
       </c>
       <c r="F51" s="7">
         <f>E51/SUM($E$23:$E$65)</f>
-        <v>4.3835616438356165E-2</v>
+        <v>3.8186157517899763E-2</v>
       </c>
       <c r="G51" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H51" s="7">
         <f>G51/SUM($G$23:$G$65)</f>
-        <v>6.1403508771929821E-2</v>
+        <v>3.0769230769230771E-2</v>
       </c>
       <c r="I51" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J51" s="7">
         <f>I51/SUM($I$23:$I$65)</f>
-        <v>5.6603773584905662E-2</v>
+        <v>3.2786885245901641E-2</v>
       </c>
       <c r="K51" s="5">
-        <f>F51/SUM(H51+J51*0.5)</f>
-        <v>0.48866198251023613</v>
+        <f t="shared" si="2"/>
+        <v>0.80966906181001363</v>
       </c>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
-      <c r="B52" s="1" t="s">
-        <v>31</v>
+      <c r="B52" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C52" s="1">
         <v>5</v>
@@ -2352,38 +2367,38 @@
         <v>6</v>
       </c>
       <c r="E52" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="E52:E56" si="3">SUM(C52*2+D52)</f>
         <v>16</v>
       </c>
       <c r="F52" s="7">
         <f>E52/SUM($E$23:$E$65)</f>
-        <v>4.3835616438356165E-2</v>
+        <v>3.8186157517899763E-2</v>
       </c>
       <c r="G52" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H52" s="7">
         <f>G52/SUM($G$23:$G$65)</f>
-        <v>7.0175438596491224E-2</v>
+        <v>3.0769230769230771E-2</v>
       </c>
       <c r="I52" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J52" s="7">
         <f>I52/SUM($I$23:$I$65)</f>
-        <v>6.6037735849056603E-2</v>
+        <v>4.0983606557377046E-2</v>
       </c>
       <c r="K52" s="5">
-        <f>F52/SUM(H52+J52*0.5)</f>
-        <v>0.42478716041787967</v>
+        <f t="shared" si="2"/>
+        <v>0.74493537298141488</v>
       </c>
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
-      <c r="B53" s="1" t="s">
-        <v>32</v>
+      <c r="B53" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="C53" s="1">
         <v>5</v>
@@ -2392,30 +2407,30 @@
         <v>6</v>
       </c>
       <c r="E53" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="F53" s="7">
         <f>E53/SUM($E$23:$E$65)</f>
-        <v>4.3835616438356165E-2</v>
+        <v>3.8186157517899763E-2</v>
       </c>
       <c r="G53" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H53" s="7">
         <f>G53/SUM($G$23:$G$65)</f>
-        <v>7.0175438596491224E-2</v>
+        <v>5.3846153846153849E-2</v>
       </c>
       <c r="I53" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J53" s="7">
         <f>I53/SUM($I$23:$I$65)</f>
-        <v>7.5471698113207544E-2</v>
+        <v>4.9180327868852458E-2</v>
       </c>
       <c r="K53" s="5">
-        <f>F53/SUM(H53+J53*0.5)</f>
-        <v>0.40621901000084043</v>
+        <f t="shared" si="2"/>
+        <v>0.48684281208512076</v>
       </c>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
@@ -2423,7 +2438,7 @@
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C54" s="1">
         <v>5</v>
@@ -2432,61 +2447,111 @@
         <v>6</v>
       </c>
       <c r="E54" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="F54" s="7">
         <f>E54/SUM($E$23:$E$65)</f>
-        <v>4.3835616438356165E-2</v>
+        <v>3.8186157517899763E-2</v>
       </c>
       <c r="G54" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H54" s="7">
         <f>G54/SUM($G$23:$G$65)</f>
-        <v>5.2631578947368418E-2</v>
+        <v>6.1538461538461542E-2</v>
       </c>
       <c r="I54" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J54" s="7">
         <f>I54/SUM($I$23:$I$65)</f>
-        <v>8.4905660377358486E-2</v>
+        <v>5.737704918032787E-2</v>
       </c>
       <c r="K54" s="5">
-        <f>F54/SUM(H54+J54*0.5)</f>
-        <v>0.46101791909581896</v>
+        <f t="shared" si="2"/>
+        <v>0.42322324125359201</v>
       </c>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="5"/>
+      <c r="B55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" s="1">
+        <v>5</v>
+      </c>
+      <c r="D55" s="1">
+        <v>6</v>
+      </c>
+      <c r="E55" s="5">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="F55" s="7">
+        <f>E55/SUM($E$23:$E$65)</f>
+        <v>3.8186157517899763E-2</v>
+      </c>
+      <c r="G55" s="5">
+        <v>8</v>
+      </c>
+      <c r="H55" s="7">
+        <f>G55/SUM($G$23:$G$65)</f>
+        <v>6.1538461538461542E-2</v>
+      </c>
+      <c r="I55" s="5">
+        <v>8</v>
+      </c>
+      <c r="J55" s="7">
+        <f>I55/SUM($I$23:$I$65)</f>
+        <v>6.5573770491803282E-2</v>
+      </c>
+      <c r="K55" s="5">
+        <f t="shared" si="2"/>
+        <v>0.40483453090500682</v>
+      </c>
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="5"/>
+      <c r="B56" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" s="1">
+        <v>5</v>
+      </c>
+      <c r="D56" s="1">
+        <v>6</v>
+      </c>
+      <c r="E56" s="5">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="F56" s="7">
+        <f>E56/SUM($E$23:$E$65)</f>
+        <v>3.8186157517899763E-2</v>
+      </c>
+      <c r="G56" s="5">
+        <v>6</v>
+      </c>
+      <c r="H56" s="7">
+        <f>G56/SUM($G$23:$G$65)</f>
+        <v>4.6153846153846156E-2</v>
+      </c>
+      <c r="I56" s="5">
+        <v>9</v>
+      </c>
+      <c r="J56" s="7">
+        <f>I56/SUM($I$23:$I$65)</f>
+        <v>7.3770491803278687E-2</v>
+      </c>
+      <c r="K56" s="5">
+        <f t="shared" si="2"/>
+        <v>0.45985759926643144</v>
+      </c>
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
     </row>

--- a/需求优先级打分/SRA2023-G17-需求优先级打分（管理员）(1).xlsx
+++ b/需求优先级打分/SRA2023-G17-需求优先级打分（管理员）(1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\时蒙恩\Desktop\计算机系统原理实验\软件工程\Request\需求优先级打分\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lenovo\文档\GitHub\Request\需求优先级打分\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4CB924-2F6A-4277-B24C-EB01651EE0F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067449AB-3856-4D62-A5F9-AC415F7B80CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="27045" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>相对权重</t>
   </si>
@@ -216,6 +218,10 @@
   </si>
   <si>
     <t xml:space="preserve">  课程学生增删</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  课程管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1126,8 +1132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:K56"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1189,7 +1195,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1">
         <f>SUM((C:C)*2,(D:D))</f>
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -1547,25 +1553,25 @@
       </c>
       <c r="F25" s="7">
         <f>E25/SUM($E$23:$E$65)</f>
-        <v>5.4892601431980909E-2</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="G25" s="5">
         <v>5</v>
       </c>
       <c r="H25" s="7">
         <f>G25/SUM($G$23:$G$65)</f>
-        <v>3.8461538461538464E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
       <c r="I25" s="5">
         <v>4</v>
       </c>
       <c r="J25" s="7">
         <f>I25/SUM($I$23:$I$65)</f>
-        <v>3.2786885245901641E-2</v>
+        <v>3.1496062992125984E-2</v>
       </c>
       <c r="K25" s="5">
         <f>F25/SUM(H25+J25*0.5)</f>
-        <v>1.0006858146105944</v>
+        <v>0.99709217795870897</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -1602,25 +1608,25 @@
       </c>
       <c r="F27" s="7">
         <f>E27/SUM($E$23:$E$65)</f>
-        <v>4.5346062052505964E-2</v>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="G27" s="5">
         <v>5</v>
       </c>
       <c r="H27" s="7">
         <f>G27/SUM($G$23:$G$65)</f>
-        <v>3.8461538461538464E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
       <c r="I27" s="5">
         <v>4</v>
       </c>
       <c r="J27" s="7">
         <f>I27/SUM($I$23:$I$65)</f>
-        <v>3.2786885245901641E-2</v>
+        <v>3.1496062992125984E-2</v>
       </c>
       <c r="K27" s="5">
         <f>F27/SUM(H27+J27*0.5)</f>
-        <v>0.82665349902614316</v>
+        <v>0.82368484266154218</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -1687,25 +1693,25 @@
       </c>
       <c r="F31" s="7">
         <f>E31/SUM($E$23:$E$65)</f>
-        <v>6.205250596658711E-2</v>
+        <v>5.9496567505720827E-2</v>
       </c>
       <c r="G31" s="5">
         <v>8</v>
       </c>
       <c r="H31" s="7">
         <f>G31/SUM($G$23:$G$65)</f>
-        <v>6.1538461538461542E-2</v>
+        <v>5.9259259259259262E-2</v>
       </c>
       <c r="I31" s="5">
         <v>7</v>
       </c>
       <c r="J31" s="7">
         <f>I31/SUM($I$23:$I$65)</f>
-        <v>5.737704918032787E-2</v>
+        <v>5.5118110236220472E-2</v>
       </c>
       <c r="K31" s="5">
         <f>F31/SUM(H31+J31*0.5)</f>
-        <v>0.687737767037087</v>
+        <v>0.68529973119622667</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -1725,25 +1731,25 @@
       </c>
       <c r="F32" s="7">
         <f>E32/SUM($E$23:$E$65)</f>
-        <v>5.2505966587112173E-2</v>
+        <v>5.0343249427917618E-2</v>
       </c>
       <c r="G32" s="5">
         <v>8</v>
       </c>
       <c r="H32" s="7">
         <f>G32/SUM($G$23:$G$65)</f>
-        <v>6.1538461538461542E-2</v>
+        <v>5.9259259259259262E-2</v>
       </c>
       <c r="I32" s="5">
         <v>8</v>
       </c>
       <c r="J32" s="7">
         <f>I32/SUM($I$23:$I$65)</f>
-        <v>6.5573770491803282E-2</v>
+        <v>6.2992125984251968E-2</v>
       </c>
       <c r="K32" s="5">
         <f>F32/SUM(H32+J32*0.5)</f>
-        <v>0.55664747999438435</v>
+        <v>0.55471401763602024</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -1779,26 +1785,26 @@
         <v>20</v>
       </c>
       <c r="F34" s="7">
-        <f>E34/SUM($E$23:$E$65)</f>
-        <v>4.77326968973747E-2</v>
+        <f t="shared" ref="F34:F44" si="2">E34/SUM($E$23:$E$65)</f>
+        <v>4.5766590389016017E-2</v>
       </c>
       <c r="G34" s="5">
         <v>4</v>
       </c>
       <c r="H34" s="7">
-        <f>G34/SUM($G$23:$G$65)</f>
-        <v>3.0769230769230771E-2</v>
+        <f t="shared" ref="H34:H44" si="3">G34/SUM($G$23:$G$65)</f>
+        <v>2.9629629629629631E-2</v>
       </c>
       <c r="I34" s="5">
         <v>4</v>
       </c>
       <c r="J34" s="7">
-        <f>I34/SUM($I$23:$I$65)</f>
-        <v>3.2786885245901641E-2</v>
+        <f t="shared" ref="J34:J44" si="4">I34/SUM($I$23:$I$65)</f>
+        <v>3.1496062992125984E-2</v>
       </c>
       <c r="K34" s="5">
-        <f>F34/SUM(H34+J34*0.5)</f>
-        <v>1.0120863272625169</v>
+        <f t="shared" ref="K34:K43" si="5">F34/SUM(H34+J34*0.5)</f>
+        <v>1.0085709411564006</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
@@ -1817,26 +1823,26 @@
         <v>14</v>
       </c>
       <c r="F35" s="7">
-        <f>E35/SUM($E$23:$E$65)</f>
-        <v>3.3412887828162291E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.2036613272311214E-2</v>
       </c>
       <c r="G35" s="5">
         <v>4</v>
       </c>
       <c r="H35" s="7">
-        <f>G35/SUM($G$23:$G$65)</f>
-        <v>3.0769230769230771E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.9629629629629631E-2</v>
       </c>
       <c r="I35" s="5">
         <v>4</v>
       </c>
       <c r="J35" s="7">
-        <f>I35/SUM($I$23:$I$65)</f>
-        <v>3.2786885245901641E-2</v>
+        <f t="shared" si="4"/>
+        <v>3.1496062992125984E-2</v>
       </c>
       <c r="K35" s="5">
-        <f>F35/SUM(H35+J35*0.5)</f>
-        <v>0.70846042908376183</v>
+        <f t="shared" si="5"/>
+        <v>0.70599965880948035</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -1855,26 +1861,26 @@
         <v>15</v>
       </c>
       <c r="F36" s="7">
-        <f>E36/SUM($E$23:$E$65)</f>
-        <v>3.5799522673031027E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.4324942791762014E-2</v>
       </c>
       <c r="G36" s="5">
         <v>5</v>
       </c>
       <c r="H36" s="7">
-        <f>G36/SUM($G$23:$G$65)</f>
-        <v>3.8461538461538464E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.7037037037037035E-2</v>
       </c>
       <c r="I36" s="5">
         <v>4</v>
       </c>
       <c r="J36" s="7">
-        <f>I36/SUM($I$23:$I$65)</f>
-        <v>3.2786885245901641E-2</v>
+        <f t="shared" si="4"/>
+        <v>3.1496062992125984E-2</v>
       </c>
       <c r="K36" s="5">
-        <f>F36/SUM(H36+J36*0.5)</f>
-        <v>0.65262118344169195</v>
+        <f t="shared" si="5"/>
+        <v>0.6502775073643754</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -1893,26 +1899,26 @@
         <v>24</v>
       </c>
       <c r="F37" s="7">
-        <f>E37/SUM($E$23:$E$65)</f>
-        <v>5.7279236276849645E-2</v>
+        <f t="shared" si="2"/>
+        <v>5.4919908466819219E-2</v>
       </c>
       <c r="G37" s="5">
         <v>5</v>
       </c>
       <c r="H37" s="7">
-        <f>G37/SUM($G$23:$G$65)</f>
-        <v>3.8461538461538464E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.7037037037037035E-2</v>
       </c>
       <c r="I37" s="5">
         <v>6</v>
       </c>
       <c r="J37" s="7">
-        <f>I37/SUM($I$23:$I$65)</f>
-        <v>4.9180327868852458E-2</v>
+        <f t="shared" si="4"/>
+        <v>4.7244094488188976E-2</v>
       </c>
       <c r="K37" s="5">
-        <f>F37/SUM(H37+J37*0.5)</f>
-        <v>0.90844868735083539</v>
+        <f t="shared" si="5"/>
+        <v>0.90538637563809188</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -1930,26 +1936,26 @@
         <v>24</v>
       </c>
       <c r="F38" s="7">
-        <f>E38/SUM($E$23:$E$65)</f>
-        <v>5.7279236276849645E-2</v>
+        <f t="shared" si="2"/>
+        <v>5.4919908466819219E-2</v>
       </c>
       <c r="G38" s="5">
         <v>6</v>
       </c>
       <c r="H38" s="7">
-        <f>G38/SUM($G$23:$G$65)</f>
-        <v>4.6153846153846156E-2</v>
+        <f t="shared" si="3"/>
+        <v>4.4444444444444446E-2</v>
       </c>
       <c r="I38" s="5">
         <v>6</v>
       </c>
       <c r="J38" s="7">
-        <f>I38/SUM($I$23:$I$65)</f>
-        <v>4.9180327868852458E-2</v>
+        <f t="shared" si="4"/>
+        <v>4.7244094488188976E-2</v>
       </c>
       <c r="K38" s="5">
-        <f>F38/SUM(H38+J38*0.5)</f>
-        <v>0.80966906181001363</v>
+        <f t="shared" si="5"/>
+        <v>0.80685675292512049</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
@@ -1967,26 +1973,26 @@
         <v>21</v>
       </c>
       <c r="F39" s="7">
-        <f>E39/SUM($E$23:$E$65)</f>
-        <v>5.0119331742243436E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.8054919908466817E-2</v>
       </c>
       <c r="G39" s="5">
         <v>6</v>
       </c>
       <c r="H39" s="7">
-        <f>G39/SUM($G$23:$G$65)</f>
-        <v>4.6153846153846156E-2</v>
+        <f t="shared" si="3"/>
+        <v>4.4444444444444446E-2</v>
       </c>
       <c r="I39" s="5">
         <v>7</v>
       </c>
       <c r="J39" s="7">
-        <f>I39/SUM($I$23:$I$65)</f>
-        <v>5.737704918032787E-2</v>
+        <f t="shared" si="4"/>
+        <v>5.5118110236220472E-2</v>
       </c>
       <c r="K39" s="5">
-        <f>F39/SUM(H39+J39*0.5)</f>
-        <v>0.66966520760908244</v>
+        <f t="shared" si="5"/>
+        <v>0.66739700431807503</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -2004,26 +2010,26 @@
         <v>13</v>
       </c>
       <c r="F40" s="7">
-        <f>E40/SUM($E$23:$E$65)</f>
-        <v>3.1026252983293555E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.9748283752860413E-2</v>
       </c>
       <c r="G40" s="5">
         <v>6</v>
       </c>
       <c r="H40" s="7">
-        <f>G40/SUM($G$23:$G$65)</f>
-        <v>4.6153846153846156E-2</v>
+        <f t="shared" si="3"/>
+        <v>4.4444444444444446E-2</v>
       </c>
       <c r="I40" s="5">
         <v>4</v>
       </c>
       <c r="J40" s="7">
-        <f>I40/SUM($I$23:$I$65)</f>
-        <v>3.2786885245901641E-2</v>
+        <f t="shared" si="4"/>
+        <v>3.1496062992125984E-2</v>
       </c>
       <c r="K40" s="5">
-        <f>F40/SUM(H40+J40*0.5)</f>
-        <v>0.49604473015628603</v>
+        <f t="shared" si="5"/>
+        <v>0.49421930711510831</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
@@ -2041,26 +2047,26 @@
         <v>19</v>
       </c>
       <c r="F41" s="7">
-        <f>E41/SUM($E$23:$E$65)</f>
-        <v>4.5346062052505964E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="G41" s="5">
         <v>6</v>
       </c>
       <c r="H41" s="7">
-        <f>G41/SUM($G$23:$G$65)</f>
-        <v>4.6153846153846156E-2</v>
+        <f t="shared" si="3"/>
+        <v>4.4444444444444446E-2</v>
       </c>
       <c r="I41" s="5">
         <v>5</v>
       </c>
       <c r="J41" s="7">
-        <f>I41/SUM($I$23:$I$65)</f>
-        <v>4.0983606557377046E-2</v>
+        <f t="shared" si="4"/>
+        <v>3.937007874015748E-2</v>
       </c>
       <c r="K41" s="5">
-        <f>F41/SUM(H41+J41*0.5)</f>
-        <v>0.68040543439237899</v>
+        <f t="shared" si="5"/>
+        <v>0.67797615516934573</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
@@ -2078,26 +2084,26 @@
         <v>15</v>
       </c>
       <c r="F42" s="7">
-        <f>E42/SUM($E$23:$E$65)</f>
-        <v>3.5799522673031027E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.4324942791762014E-2</v>
       </c>
       <c r="G42" s="5">
         <v>4</v>
       </c>
       <c r="H42" s="7">
-        <f>G42/SUM($G$23:$G$65)</f>
-        <v>3.0769230769230771E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.9629629629629631E-2</v>
       </c>
       <c r="I42" s="5">
         <v>3</v>
       </c>
       <c r="J42" s="7">
-        <f>I42/SUM($I$23:$I$65)</f>
-        <v>2.4590163934426229E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.3622047244094488E-2</v>
       </c>
       <c r="K42" s="5">
-        <f>F42/SUM(H42+J42*0.5)</f>
-        <v>0.83130370365193573</v>
+        <f t="shared" si="5"/>
+        <v>0.82829154702992225</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
@@ -2115,30 +2121,64 @@
         <v>18</v>
       </c>
       <c r="F43" s="7">
-        <f>E43/SUM($E$23:$E$65)</f>
-        <v>4.2959427207637228E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.1189931350114416E-2</v>
       </c>
       <c r="G43" s="5">
         <v>5</v>
       </c>
       <c r="H43" s="7">
-        <f>G43/SUM($G$23:$G$65)</f>
-        <v>3.8461538461538464E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.7037037037037035E-2</v>
       </c>
       <c r="I43" s="5">
         <v>5</v>
       </c>
       <c r="J43" s="7">
-        <f>I43/SUM($I$23:$I$65)</f>
-        <v>4.0983606557377046E-2</v>
+        <f t="shared" si="4"/>
+        <v>3.937007874015748E-2</v>
       </c>
       <c r="K43" s="5">
-        <f>F43/SUM(H43+J43*0.5)</f>
-        <v>0.7287021556290123</v>
+        <f t="shared" si="5"/>
+        <v>0.72617107763260846</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B44" s="2"/>
+      <c r="B44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="1">
+        <v>6</v>
+      </c>
+      <c r="D44" s="1">
+        <v>6</v>
+      </c>
+      <c r="E44" s="5">
+        <f>SUM(C44*2+D44)</f>
+        <v>18</v>
+      </c>
+      <c r="F44" s="7">
+        <f t="shared" si="2"/>
+        <v>4.1189931350114416E-2</v>
+      </c>
+      <c r="G44" s="5">
+        <v>5</v>
+      </c>
+      <c r="H44" s="7">
+        <f t="shared" si="3"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="I44" s="5">
+        <v>5</v>
+      </c>
+      <c r="J44" s="7">
+        <f t="shared" si="4"/>
+        <v>3.937007874015748E-2</v>
+      </c>
+      <c r="K44" s="5">
+        <f t="shared" ref="K44" si="6">F44/SUM(H44+J44*0.5)</f>
+        <v>0.72617107763260846</v>
+      </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
@@ -2195,25 +2235,25 @@
       </c>
       <c r="F47" s="7">
         <f>E47/SUM($E$23:$E$65)</f>
-        <v>4.5346062052505964E-2</v>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="G47" s="5">
         <v>6</v>
       </c>
       <c r="H47" s="7">
         <f>G47/SUM($G$23:$G$65)</f>
-        <v>4.6153846153846156E-2</v>
+        <v>4.4444444444444446E-2</v>
       </c>
       <c r="I47" s="5">
         <v>4</v>
       </c>
       <c r="J47" s="7">
         <f>I47/SUM($I$23:$I$65)</f>
-        <v>3.2786885245901641E-2</v>
+        <v>3.1496062992125984E-2</v>
       </c>
       <c r="K47" s="5">
         <f>F47/SUM(H47+J47*0.5)</f>
-        <v>0.72498845176687954</v>
+        <v>0.72232052578361983</v>
       </c>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
@@ -2235,25 +2275,25 @@
       </c>
       <c r="F48" s="7">
         <f>E48/SUM($E$23:$E$65)</f>
-        <v>3.5799522673031027E-2</v>
+        <v>3.4324942791762014E-2</v>
       </c>
       <c r="G48" s="5">
         <v>6</v>
       </c>
       <c r="H48" s="7">
         <f>G48/SUM($G$23:$G$65)</f>
-        <v>4.6153846153846156E-2</v>
+        <v>4.4444444444444446E-2</v>
       </c>
       <c r="I48" s="5">
         <v>4</v>
       </c>
       <c r="J48" s="7">
         <f>I48/SUM($I$23:$I$65)</f>
-        <v>3.2786885245901641E-2</v>
+        <v>3.1496062992125984E-2</v>
       </c>
       <c r="K48" s="5">
         <f>F48/SUM(H48+J48*0.5)</f>
-        <v>0.57235930402648394</v>
+        <v>0.57025304667127885</v>
       </c>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
@@ -2291,26 +2331,26 @@
         <v>16</v>
       </c>
       <c r="F50" s="7">
-        <f>E50/SUM($E$23:$E$65)</f>
-        <v>3.8186157517899763E-2</v>
+        <f t="shared" ref="F50:F56" si="7">E50/SUM($E$23:$E$65)</f>
+        <v>3.6613272311212815E-2</v>
       </c>
       <c r="G50" s="5">
         <v>4</v>
       </c>
       <c r="H50" s="7">
-        <f>G50/SUM($G$23:$G$65)</f>
-        <v>3.0769230769230771E-2</v>
+        <f t="shared" ref="H50:H56" si="8">G50/SUM($G$23:$G$65)</f>
+        <v>2.9629629629629631E-2</v>
       </c>
       <c r="I50" s="5">
         <v>4</v>
       </c>
       <c r="J50" s="7">
-        <f>I50/SUM($I$23:$I$65)</f>
-        <v>3.2786885245901641E-2</v>
+        <f t="shared" ref="J50:J56" si="9">I50/SUM($I$23:$I$65)</f>
+        <v>3.1496062992125984E-2</v>
       </c>
       <c r="K50" s="5">
-        <f t="shared" ref="K50:K56" si="2">F50/SUM(H50+J50*0.5)</f>
-        <v>0.80966906181001363</v>
+        <f t="shared" ref="K50:K56" si="10">F50/SUM(H50+J50*0.5)</f>
+        <v>0.80685675292512038</v>
       </c>
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
@@ -2331,26 +2371,26 @@
         <v>16</v>
       </c>
       <c r="F51" s="7">
-        <f>E51/SUM($E$23:$E$65)</f>
-        <v>3.8186157517899763E-2</v>
+        <f t="shared" si="7"/>
+        <v>3.6613272311212815E-2</v>
       </c>
       <c r="G51" s="5">
         <v>4</v>
       </c>
       <c r="H51" s="7">
-        <f>G51/SUM($G$23:$G$65)</f>
-        <v>3.0769230769230771E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.9629629629629631E-2</v>
       </c>
       <c r="I51" s="5">
         <v>4</v>
       </c>
       <c r="J51" s="7">
-        <f>I51/SUM($I$23:$I$65)</f>
-        <v>3.2786885245901641E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.1496062992125984E-2</v>
       </c>
       <c r="K51" s="5">
-        <f t="shared" si="2"/>
-        <v>0.80966906181001363</v>
+        <f t="shared" si="10"/>
+        <v>0.80685675292512038</v>
       </c>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
@@ -2367,30 +2407,30 @@
         <v>6</v>
       </c>
       <c r="E52" s="5">
-        <f t="shared" ref="E52:E56" si="3">SUM(C52*2+D52)</f>
+        <f t="shared" ref="E52:E56" si="11">SUM(C52*2+D52)</f>
         <v>16</v>
       </c>
       <c r="F52" s="7">
-        <f>E52/SUM($E$23:$E$65)</f>
-        <v>3.8186157517899763E-2</v>
+        <f t="shared" si="7"/>
+        <v>3.6613272311212815E-2</v>
       </c>
       <c r="G52" s="5">
         <v>4</v>
       </c>
       <c r="H52" s="7">
-        <f>G52/SUM($G$23:$G$65)</f>
-        <v>3.0769230769230771E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.9629629629629631E-2</v>
       </c>
       <c r="I52" s="5">
         <v>5</v>
       </c>
       <c r="J52" s="7">
-        <f>I52/SUM($I$23:$I$65)</f>
-        <v>4.0983606557377046E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.937007874015748E-2</v>
       </c>
       <c r="K52" s="5">
-        <f t="shared" si="2"/>
-        <v>0.74493537298141488</v>
+        <f t="shared" si="10"/>
+        <v>0.74244181404582343</v>
       </c>
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
@@ -2407,30 +2447,30 @@
         <v>6</v>
       </c>
       <c r="E53" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="F53" s="7">
-        <f>E53/SUM($E$23:$E$65)</f>
-        <v>3.8186157517899763E-2</v>
+        <f t="shared" si="7"/>
+        <v>3.6613272311212815E-2</v>
       </c>
       <c r="G53" s="5">
         <v>7</v>
       </c>
       <c r="H53" s="7">
-        <f>G53/SUM($G$23:$G$65)</f>
-        <v>5.3846153846153849E-2</v>
+        <f t="shared" si="8"/>
+        <v>5.185185185185185E-2</v>
       </c>
       <c r="I53" s="5">
         <v>6</v>
       </c>
       <c r="J53" s="7">
-        <f>I53/SUM($I$23:$I$65)</f>
-        <v>4.9180327868852458E-2</v>
+        <f t="shared" si="9"/>
+        <v>4.7244094488188976E-2</v>
       </c>
       <c r="K53" s="5">
-        <f t="shared" si="2"/>
-        <v>0.48684281208512076</v>
+        <f t="shared" si="10"/>
+        <v>0.48511171080042015</v>
       </c>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
@@ -2447,30 +2487,30 @@
         <v>6</v>
       </c>
       <c r="E54" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="F54" s="7">
-        <f>E54/SUM($E$23:$E$65)</f>
-        <v>3.8186157517899763E-2</v>
+        <f t="shared" si="7"/>
+        <v>3.6613272311212815E-2</v>
       </c>
       <c r="G54" s="5">
         <v>8</v>
       </c>
       <c r="H54" s="7">
-        <f>G54/SUM($G$23:$G$65)</f>
-        <v>6.1538461538461542E-2</v>
+        <f t="shared" si="8"/>
+        <v>5.9259259259259262E-2</v>
       </c>
       <c r="I54" s="5">
         <v>7</v>
       </c>
       <c r="J54" s="7">
-        <f>I54/SUM($I$23:$I$65)</f>
-        <v>5.737704918032787E-2</v>
+        <f t="shared" si="9"/>
+        <v>5.5118110236220472E-2</v>
       </c>
       <c r="K54" s="5">
-        <f t="shared" si="2"/>
-        <v>0.42322324125359201</v>
+        <f t="shared" si="10"/>
+        <v>0.42172291150537028</v>
       </c>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
@@ -2487,30 +2527,30 @@
         <v>6</v>
       </c>
       <c r="E55" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="F55" s="7">
-        <f>E55/SUM($E$23:$E$65)</f>
-        <v>3.8186157517899763E-2</v>
+        <f t="shared" si="7"/>
+        <v>3.6613272311212815E-2</v>
       </c>
       <c r="G55" s="5">
         <v>8</v>
       </c>
       <c r="H55" s="7">
-        <f>G55/SUM($G$23:$G$65)</f>
-        <v>6.1538461538461542E-2</v>
+        <f t="shared" si="8"/>
+        <v>5.9259259259259262E-2</v>
       </c>
       <c r="I55" s="5">
         <v>8</v>
       </c>
       <c r="J55" s="7">
-        <f>I55/SUM($I$23:$I$65)</f>
-        <v>6.5573770491803282E-2</v>
+        <f t="shared" si="9"/>
+        <v>6.2992125984251968E-2</v>
       </c>
       <c r="K55" s="5">
-        <f t="shared" si="2"/>
-        <v>0.40483453090500682</v>
+        <f t="shared" si="10"/>
+        <v>0.40342837646256019</v>
       </c>
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
@@ -2527,30 +2567,30 @@
         <v>6</v>
       </c>
       <c r="E56" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="F56" s="7">
-        <f>E56/SUM($E$23:$E$65)</f>
-        <v>3.8186157517899763E-2</v>
+        <f t="shared" si="7"/>
+        <v>3.6613272311212815E-2</v>
       </c>
       <c r="G56" s="5">
         <v>6</v>
       </c>
       <c r="H56" s="7">
-        <f>G56/SUM($G$23:$G$65)</f>
-        <v>4.6153846153846156E-2</v>
+        <f t="shared" si="8"/>
+        <v>4.4444444444444446E-2</v>
       </c>
       <c r="I56" s="5">
         <v>9</v>
       </c>
       <c r="J56" s="7">
-        <f>I56/SUM($I$23:$I$65)</f>
-        <v>7.3770491803278687E-2</v>
+        <f t="shared" si="9"/>
+        <v>7.0866141732283464E-2</v>
       </c>
       <c r="K56" s="5">
-        <f t="shared" si="2"/>
-        <v>0.45985759926643144</v>
+        <f t="shared" si="10"/>
+        <v>0.45836769169459196</v>
       </c>
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
